--- a/data/pca/factorExposure/factorExposure_2011-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.005354366590490696</v>
+        <v>0.01299486073859821</v>
       </c>
       <c r="C2">
-        <v>0.00584927640510133</v>
+        <v>0.004591097580475537</v>
       </c>
       <c r="D2">
-        <v>-0.04987111753427676</v>
+        <v>0.02795177370107517</v>
       </c>
       <c r="E2">
-        <v>0.0009061390257056494</v>
+        <v>-0.01751404676269849</v>
       </c>
       <c r="F2">
-        <v>-0.01104432874199342</v>
+        <v>0.001346956503301541</v>
       </c>
       <c r="G2">
-        <v>-0.03465464347277852</v>
+        <v>0.0154240042745604</v>
       </c>
       <c r="H2">
-        <v>0.008822976704645371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02450938728871839</v>
+      </c>
+      <c r="I2">
+        <v>-0.03569430873166779</v>
+      </c>
+      <c r="J2">
+        <v>-0.02485833507286851</v>
+      </c>
+      <c r="K2">
+        <v>-0.03087605313523421</v>
+      </c>
+      <c r="L2">
+        <v>0.0237078275337672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.08699307882203375</v>
+        <v>0.1104947526961433</v>
       </c>
       <c r="C4">
-        <v>-0.04896671156319723</v>
+        <v>-0.07480957037500065</v>
       </c>
       <c r="D4">
-        <v>-0.03041480400407975</v>
+        <v>0.02440276637324832</v>
       </c>
       <c r="E4">
-        <v>-0.03709671828862633</v>
+        <v>-0.01947745373561877</v>
       </c>
       <c r="F4">
-        <v>-0.0239325878279909</v>
+        <v>0.1533241075763479</v>
       </c>
       <c r="G4">
-        <v>-0.025494223587466</v>
+        <v>-0.02970066317761918</v>
       </c>
       <c r="H4">
-        <v>-0.01864923130439882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.008041682722151489</v>
+      </c>
+      <c r="I4">
+        <v>0.01676491586879099</v>
+      </c>
+      <c r="J4">
+        <v>0.02581802549233756</v>
+      </c>
+      <c r="K4">
+        <v>0.09800643219160823</v>
+      </c>
+      <c r="L4">
+        <v>0.01904061204681138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.132175160080628</v>
+        <v>0.1327381847937085</v>
       </c>
       <c r="C6">
-        <v>-0.03864315520277858</v>
+        <v>-0.05157995240803719</v>
       </c>
       <c r="D6">
-        <v>-0.04981481829798665</v>
+        <v>0.001804859596813141</v>
       </c>
       <c r="E6">
-        <v>-0.05445156578562455</v>
+        <v>-0.006062019988182758</v>
       </c>
       <c r="F6">
-        <v>0.1110570125476012</v>
+        <v>-0.008419673077202181</v>
       </c>
       <c r="G6">
-        <v>0.1146701874769461</v>
+        <v>-0.09648003555079339</v>
       </c>
       <c r="H6">
-        <v>0.03299593092991196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.03426091294403675</v>
+      </c>
+      <c r="I6">
+        <v>0.2557245952882746</v>
+      </c>
+      <c r="J6">
+        <v>0.3351123158713633</v>
+      </c>
+      <c r="K6">
+        <v>-0.02916352217787977</v>
+      </c>
+      <c r="L6">
+        <v>0.218545134188811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.07927586088378626</v>
+        <v>0.07192519888950978</v>
       </c>
       <c r="C7">
-        <v>-0.04438926624356763</v>
+        <v>-0.06013668446951473</v>
       </c>
       <c r="D7">
-        <v>-0.04075267424515911</v>
+        <v>0.02918193354223805</v>
       </c>
       <c r="E7">
-        <v>-0.04784013753626324</v>
+        <v>-0.01957159785659604</v>
       </c>
       <c r="F7">
-        <v>0.03842623271921055</v>
+        <v>0.0353174826649825</v>
       </c>
       <c r="G7">
-        <v>0.002312246482298437</v>
+        <v>-0.01445371228049138</v>
       </c>
       <c r="H7">
-        <v>0.02372739148333685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02000483230916681</v>
+      </c>
+      <c r="I7">
+        <v>0.001309383851830873</v>
+      </c>
+      <c r="J7">
+        <v>-0.05200056372630334</v>
+      </c>
+      <c r="K7">
+        <v>0.1059917486406418</v>
+      </c>
+      <c r="L7">
+        <v>-0.04067612027637391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03700815768932428</v>
+        <v>0.04294756363810789</v>
       </c>
       <c r="C8">
-        <v>-0.00326233873211933</v>
+        <v>-0.01928218538861871</v>
       </c>
       <c r="D8">
-        <v>-0.05375319923789493</v>
+        <v>0.006359369994020524</v>
       </c>
       <c r="E8">
-        <v>-0.05694499267381976</v>
+        <v>-0.01718230782543097</v>
       </c>
       <c r="F8">
-        <v>-0.03079662605093598</v>
+        <v>0.1423949846125223</v>
       </c>
       <c r="G8">
-        <v>-0.08255700987626791</v>
+        <v>-0.009288364575345123</v>
       </c>
       <c r="H8">
-        <v>0.08573376598697351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.04447079853900538</v>
+      </c>
+      <c r="I8">
+        <v>0.07360749694266708</v>
+      </c>
+      <c r="J8">
+        <v>0.001459840547078129</v>
+      </c>
+      <c r="K8">
+        <v>0.08324397038688564</v>
+      </c>
+      <c r="L8">
+        <v>0.05044424672678516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07986530063634603</v>
+        <v>0.08465214769180182</v>
       </c>
       <c r="C9">
-        <v>-0.04786618259566639</v>
+        <v>-0.06425645811304546</v>
       </c>
       <c r="D9">
-        <v>-0.03298508828744674</v>
+        <v>0.02424442749755044</v>
       </c>
       <c r="E9">
-        <v>-0.02853043831903843</v>
+        <v>-0.001939307290220018</v>
       </c>
       <c r="F9">
-        <v>-0.01335976890821863</v>
+        <v>0.1382121573353384</v>
       </c>
       <c r="G9">
-        <v>-0.03256383782345924</v>
+        <v>-0.02664267040223511</v>
       </c>
       <c r="H9">
-        <v>0.03020584959882123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.0140632144406384</v>
+      </c>
+      <c r="I9">
+        <v>0.009377178087667404</v>
+      </c>
+      <c r="J9">
+        <v>0.0002333286267683936</v>
+      </c>
+      <c r="K9">
+        <v>0.06525649943199791</v>
+      </c>
+      <c r="L9">
+        <v>0.02442151743414324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04573494822090372</v>
+        <v>0.1041819049102527</v>
       </c>
       <c r="C10">
-        <v>0.1406888177838155</v>
+        <v>0.1659360817486607</v>
       </c>
       <c r="D10">
-        <v>-0.08225479656355628</v>
+        <v>0.05365353925509463</v>
       </c>
       <c r="E10">
-        <v>-0.03003125658997915</v>
+        <v>-0.03202206696031752</v>
       </c>
       <c r="F10">
-        <v>0.04812405644885253</v>
+        <v>-0.01091970994586756</v>
       </c>
       <c r="G10">
-        <v>0.01010401487838997</v>
+        <v>-0.009199275913967703</v>
       </c>
       <c r="H10">
-        <v>0.002788890551363974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.03596455612697939</v>
+      </c>
+      <c r="I10">
+        <v>-0.002503181947171898</v>
+      </c>
+      <c r="J10">
+        <v>0.02143772295659206</v>
+      </c>
+      <c r="K10">
+        <v>-0.01838260101226724</v>
+      </c>
+      <c r="L10">
+        <v>-0.05096352667865065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07010606799212442</v>
+        <v>0.07211702525165337</v>
       </c>
       <c r="C11">
-        <v>-0.06698416579904602</v>
+        <v>-0.07164277485821878</v>
       </c>
       <c r="D11">
-        <v>-0.007163295721058293</v>
+        <v>0.007354236115370941</v>
       </c>
       <c r="E11">
-        <v>0.006230593836421051</v>
+        <v>0.02259972658711929</v>
       </c>
       <c r="F11">
-        <v>0.001237372281449894</v>
+        <v>0.1319141964867288</v>
       </c>
       <c r="G11">
-        <v>-0.1194549328620977</v>
+        <v>0.006697522191851175</v>
       </c>
       <c r="H11">
-        <v>0.06251954276935999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05926187394805065</v>
+      </c>
+      <c r="I11">
+        <v>-0.03798507766536006</v>
+      </c>
+      <c r="J11">
+        <v>-0.08928981667688807</v>
+      </c>
+      <c r="K11">
+        <v>-0.03357159655583563</v>
+      </c>
+      <c r="L11">
+        <v>0.01726417807235347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06223293875700497</v>
+        <v>0.06714666636896349</v>
       </c>
       <c r="C12">
-        <v>-0.03750186445669221</v>
+        <v>-0.06333407171698861</v>
       </c>
       <c r="D12">
-        <v>0.006413862236858757</v>
+        <v>0.01467953039646151</v>
       </c>
       <c r="E12">
-        <v>-0.03759459226663938</v>
+        <v>0.02023458670076466</v>
       </c>
       <c r="F12">
-        <v>0.005786792961087698</v>
+        <v>0.1406166646884219</v>
       </c>
       <c r="G12">
-        <v>-0.09998748845419418</v>
+        <v>0.01519976228089761</v>
       </c>
       <c r="H12">
-        <v>0.08282550191273358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.06025185835963902</v>
+      </c>
+      <c r="I12">
+        <v>0.003640349008921675</v>
+      </c>
+      <c r="J12">
+        <v>-0.09318332009710958</v>
+      </c>
+      <c r="K12">
+        <v>-0.009123644858014278</v>
+      </c>
+      <c r="L12">
+        <v>0.0439674956640692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.0544805901875904</v>
+        <v>0.04439491194533051</v>
       </c>
       <c r="C13">
-        <v>-0.003296452754979406</v>
+        <v>-0.03158497705647456</v>
       </c>
       <c r="D13">
-        <v>-0.002158217080253118</v>
+        <v>0.01080174205796493</v>
       </c>
       <c r="E13">
-        <v>-0.01809679960554123</v>
+        <v>-0.02494206351818687</v>
       </c>
       <c r="F13">
-        <v>-0.0497774882832079</v>
+        <v>0.04567027761246223</v>
       </c>
       <c r="G13">
-        <v>-0.008981374523607449</v>
+        <v>-0.003085337853604333</v>
       </c>
       <c r="H13">
-        <v>0.07628975254033338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01693967937518633</v>
+      </c>
+      <c r="I13">
+        <v>0.01594890624935391</v>
+      </c>
+      <c r="J13">
+        <v>-0.007068541055344392</v>
+      </c>
+      <c r="K13">
+        <v>0.04725993924724291</v>
+      </c>
+      <c r="L13">
+        <v>-0.01421617997486324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05362889264820919</v>
+        <v>0.03756636913735029</v>
       </c>
       <c r="C14">
-        <v>-0.008506512941531826</v>
+        <v>-0.02137931686902023</v>
       </c>
       <c r="D14">
-        <v>-0.0168078009221708</v>
+        <v>0.01024739351139911</v>
       </c>
       <c r="E14">
-        <v>-0.03091347968684544</v>
+        <v>0.01231432243429422</v>
       </c>
       <c r="F14">
-        <v>0.004568466497171741</v>
+        <v>0.06273866336125287</v>
       </c>
       <c r="G14">
-        <v>-0.0008831044345134475</v>
+        <v>-0.002519089116598921</v>
       </c>
       <c r="H14">
-        <v>0.07747286523722431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02802637183091077</v>
+      </c>
+      <c r="I14">
+        <v>0.0008493721414196271</v>
+      </c>
+      <c r="J14">
+        <v>0.02997163606229722</v>
+      </c>
+      <c r="K14">
+        <v>0.1094808794754091</v>
+      </c>
+      <c r="L14">
+        <v>0.02646611002412586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03730714116476678</v>
+        <v>0.02486176846518493</v>
       </c>
       <c r="C15">
-        <v>0.007886295527922084</v>
+        <v>-0.01435303221869876</v>
       </c>
       <c r="D15">
-        <v>-0.006698782550540428</v>
+        <v>-0.005119834329699512</v>
       </c>
       <c r="E15">
-        <v>-0.01943568604748911</v>
+        <v>-0.05088934937144903</v>
       </c>
       <c r="F15">
-        <v>-0.01575972968520114</v>
+        <v>0.004461001047467034</v>
       </c>
       <c r="G15">
-        <v>0.003462165629485665</v>
+        <v>-0.03343371214541441</v>
       </c>
       <c r="H15">
-        <v>0.01136105506424324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0009692509731453117</v>
+      </c>
+      <c r="I15">
+        <v>-0.01112934820846641</v>
+      </c>
+      <c r="J15">
+        <v>0.04583142025991972</v>
+      </c>
+      <c r="K15">
+        <v>0.06671992819200995</v>
+      </c>
+      <c r="L15">
+        <v>-0.01811197260452579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07022083471891746</v>
+        <v>0.07664859708436098</v>
       </c>
       <c r="C16">
-        <v>-0.07367099881426602</v>
+        <v>-0.07569855045369525</v>
       </c>
       <c r="D16">
-        <v>-0.01665600813288455</v>
+        <v>0.004441672680717033</v>
       </c>
       <c r="E16">
-        <v>-0.03053881224998261</v>
+        <v>0.01699960026127499</v>
       </c>
       <c r="F16">
-        <v>-0.02986233211084626</v>
+        <v>0.1269074320666654</v>
       </c>
       <c r="G16">
-        <v>-0.08064513463872755</v>
+        <v>0.01673079620819577</v>
       </c>
       <c r="H16">
-        <v>0.0670275962584298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.05329806068101057</v>
+      </c>
+      <c r="I16">
+        <v>-0.03212439215932599</v>
+      </c>
+      <c r="J16">
+        <v>-0.1033399561047603</v>
+      </c>
+      <c r="K16">
+        <v>-0.002582606749499995</v>
+      </c>
+      <c r="L16">
+        <v>0.03490107409607843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.04983150983300614</v>
+        <v>0.04372401242458113</v>
       </c>
       <c r="C20">
-        <v>-0.0349902144225436</v>
+        <v>-0.0323002377016218</v>
       </c>
       <c r="D20">
-        <v>-0.007777887871050545</v>
+        <v>0.01286479416236853</v>
       </c>
       <c r="E20">
-        <v>-0.01308992179719431</v>
+        <v>-0.0248507896119297</v>
       </c>
       <c r="F20">
-        <v>-0.008593945430711205</v>
+        <v>0.0673397221592722</v>
       </c>
       <c r="G20">
-        <v>-0.03215406273795814</v>
+        <v>0.01012434104157726</v>
       </c>
       <c r="H20">
-        <v>0.05360652770071572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.002203578221658745</v>
+      </c>
+      <c r="I20">
+        <v>0.022944912901387</v>
+      </c>
+      <c r="J20">
+        <v>0.00481322981185031</v>
+      </c>
+      <c r="K20">
+        <v>0.07384794148554101</v>
+      </c>
+      <c r="L20">
+        <v>0.005120273504708592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02940129471613257</v>
+        <v>0.02472611388660941</v>
       </c>
       <c r="C21">
-        <v>-0.03395041993109166</v>
+        <v>-0.02351783362935665</v>
       </c>
       <c r="D21">
-        <v>0.001815770448014693</v>
+        <v>0.001729027435557293</v>
       </c>
       <c r="E21">
-        <v>-0.05503250703033054</v>
+        <v>-0.006791915060285846</v>
       </c>
       <c r="F21">
-        <v>0.0840604902921815</v>
+        <v>0.06145356384913754</v>
       </c>
       <c r="G21">
-        <v>0.02729384777683402</v>
+        <v>-0.04520532648629714</v>
       </c>
       <c r="H21">
-        <v>-0.08173393602524559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.0981210844509269</v>
+      </c>
+      <c r="I21">
+        <v>0.04080244276812799</v>
+      </c>
+      <c r="J21">
+        <v>0.05220111714317634</v>
+      </c>
+      <c r="K21">
+        <v>0.1007697651259335</v>
+      </c>
+      <c r="L21">
+        <v>-0.09100176152008405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.02468931878298003</v>
+        <v>0.04578756264114318</v>
       </c>
       <c r="C22">
-        <v>-0.04485525003546501</v>
+        <v>-0.03136081892221482</v>
       </c>
       <c r="D22">
-        <v>0.04293104088866013</v>
+        <v>-0.09555912951050019</v>
       </c>
       <c r="E22">
-        <v>-0.5211969777333963</v>
+        <v>-0.650858561592994</v>
       </c>
       <c r="F22">
-        <v>-0.2539174249158182</v>
+        <v>-0.05555150577478473</v>
       </c>
       <c r="G22">
-        <v>0.1422279591177048</v>
+        <v>0.1525357567738073</v>
       </c>
       <c r="H22">
-        <v>-0.2776142465501508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.06457852381393754</v>
+      </c>
+      <c r="I22">
+        <v>0.01192592753645231</v>
+      </c>
+      <c r="J22">
+        <v>-0.02198512091566648</v>
+      </c>
+      <c r="K22">
+        <v>-0.0447073254730076</v>
+      </c>
+      <c r="L22">
+        <v>-0.0007694603772912126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.02452684774521025</v>
+        <v>0.04624213487259735</v>
       </c>
       <c r="C23">
-        <v>-0.04456496250686653</v>
+        <v>-0.03208237512253598</v>
       </c>
       <c r="D23">
-        <v>0.04185570092401902</v>
+        <v>-0.09584655327927641</v>
       </c>
       <c r="E23">
-        <v>-0.5203766363003048</v>
+        <v>-0.6526362604524206</v>
       </c>
       <c r="F23">
-        <v>-0.2546419311498997</v>
+        <v>-0.05276633312611885</v>
       </c>
       <c r="G23">
-        <v>0.1431399928716211</v>
+        <v>0.1529669256238197</v>
       </c>
       <c r="H23">
-        <v>-0.276800009931992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.06165117181147927</v>
+      </c>
+      <c r="I23">
+        <v>0.01293683464165733</v>
+      </c>
+      <c r="J23">
+        <v>-0.02026716527111737</v>
+      </c>
+      <c r="K23">
+        <v>-0.04672511863596369</v>
+      </c>
+      <c r="L23">
+        <v>0.001583896966053778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.07915453294214402</v>
+        <v>0.08023757114153501</v>
       </c>
       <c r="C24">
-        <v>-0.0557771946235148</v>
+        <v>-0.0683758283958996</v>
       </c>
       <c r="D24">
-        <v>-0.01452145032154517</v>
+        <v>0.009820168689777286</v>
       </c>
       <c r="E24">
-        <v>-0.03775336842802446</v>
+        <v>0.01176019754549701</v>
       </c>
       <c r="F24">
-        <v>-0.008279137507911285</v>
+        <v>0.1261347563289967</v>
       </c>
       <c r="G24">
-        <v>-0.08888062759434932</v>
+        <v>0.0186972235321515</v>
       </c>
       <c r="H24">
-        <v>0.06400219749137454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.06731491243242137</v>
+      </c>
+      <c r="I24">
+        <v>-0.05007917376660465</v>
+      </c>
+      <c r="J24">
+        <v>-0.09263393395565413</v>
+      </c>
+      <c r="K24">
+        <v>-0.03454238937284192</v>
+      </c>
+      <c r="L24">
+        <v>0.04113725948492231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.06919648641565028</v>
+        <v>0.07652337563461596</v>
       </c>
       <c r="C25">
-        <v>-0.02742464100151256</v>
+        <v>-0.0520537584332432</v>
       </c>
       <c r="D25">
-        <v>-0.01568814645309764</v>
+        <v>0.01854124904196768</v>
       </c>
       <c r="E25">
-        <v>-0.02854932719432054</v>
+        <v>0.02539377817723132</v>
       </c>
       <c r="F25">
-        <v>0.0005219399529468596</v>
+        <v>0.1307495393002001</v>
       </c>
       <c r="G25">
-        <v>-0.08748961279313855</v>
+        <v>0.01440051329177753</v>
       </c>
       <c r="H25">
-        <v>0.06632405433328545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.05029845373533599</v>
+      </c>
+      <c r="I25">
+        <v>-0.02983268026659616</v>
+      </c>
+      <c r="J25">
+        <v>-0.09184475580184218</v>
+      </c>
+      <c r="K25">
+        <v>-0.02547735814586713</v>
+      </c>
+      <c r="L25">
+        <v>0.05350532669206871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05325244740890427</v>
+        <v>0.04283090743002976</v>
       </c>
       <c r="C26">
-        <v>-0.03683015043154011</v>
+        <v>-0.01642490706414123</v>
       </c>
       <c r="D26">
-        <v>-0.03084866343395515</v>
+        <v>-0.0001786745190154915</v>
       </c>
       <c r="E26">
-        <v>-0.006799256001671753</v>
+        <v>-0.009329084723735002</v>
       </c>
       <c r="F26">
-        <v>-0.01784554477852819</v>
+        <v>0.05153533690708932</v>
       </c>
       <c r="G26">
-        <v>0.006333993299553553</v>
+        <v>0.01594745126438405</v>
       </c>
       <c r="H26">
-        <v>0.05535560933652559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.009288820337127753</v>
+      </c>
+      <c r="I26">
+        <v>-0.009947968182212049</v>
+      </c>
+      <c r="J26">
+        <v>0.04226914219539848</v>
+      </c>
+      <c r="K26">
+        <v>0.1091890270334968</v>
+      </c>
+      <c r="L26">
+        <v>-0.05220244358889872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.08838814752216496</v>
+        <v>0.1417153090226688</v>
       </c>
       <c r="C28">
-        <v>0.2931934529197779</v>
+        <v>0.2879700911233505</v>
       </c>
       <c r="D28">
-        <v>-0.07398743924071054</v>
+        <v>-0.003935442008972904</v>
       </c>
       <c r="E28">
-        <v>-0.00571057147318251</v>
+        <v>0.002860863359339645</v>
       </c>
       <c r="F28">
-        <v>0.03526352550955285</v>
+        <v>0.01372943370914442</v>
       </c>
       <c r="G28">
-        <v>0.005410307000673451</v>
+        <v>-0.006132712617526111</v>
       </c>
       <c r="H28">
-        <v>-0.05689707313796135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01564809610529816</v>
+      </c>
+      <c r="I28">
+        <v>0.0211464094862629</v>
+      </c>
+      <c r="J28">
+        <v>-0.01460268299059972</v>
+      </c>
+      <c r="K28">
+        <v>0.001502333583187278</v>
+      </c>
+      <c r="L28">
+        <v>-0.01971969723281674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05387705545351302</v>
+        <v>0.03729844264016934</v>
       </c>
       <c r="C29">
-        <v>-0.004507999121098855</v>
+        <v>-0.02113146007948999</v>
       </c>
       <c r="D29">
-        <v>-0.007439966001725034</v>
+        <v>0.01997105542094441</v>
       </c>
       <c r="E29">
-        <v>-0.03633130609460982</v>
+        <v>0.002902487849048294</v>
       </c>
       <c r="F29">
-        <v>-0.02246407414086059</v>
+        <v>0.06520324425823003</v>
       </c>
       <c r="G29">
-        <v>-0.001214278171672786</v>
+        <v>0.02098377512453456</v>
       </c>
       <c r="H29">
-        <v>0.0193116834442735</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.00884985056254013</v>
+      </c>
+      <c r="I29">
+        <v>0.01030689856823143</v>
+      </c>
+      <c r="J29">
+        <v>0.02965151593422874</v>
+      </c>
+      <c r="K29">
+        <v>0.1051384198159894</v>
+      </c>
+      <c r="L29">
+        <v>0.008113245107145405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1185990987457065</v>
+        <v>0.1067648499853069</v>
       </c>
       <c r="C30">
-        <v>-0.0273256617667919</v>
+        <v>-0.05669211510332213</v>
       </c>
       <c r="D30">
-        <v>-0.05299212880174676</v>
+        <v>-0.02020345603267693</v>
       </c>
       <c r="E30">
-        <v>-0.0974552881157819</v>
+        <v>0.006965575296703606</v>
       </c>
       <c r="F30">
-        <v>0.05258080485794926</v>
+        <v>0.2173072871284455</v>
       </c>
       <c r="G30">
-        <v>-0.179461600543595</v>
+        <v>0.1371610051276705</v>
       </c>
       <c r="H30">
-        <v>0.02867599113962672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1417785646301253</v>
+      </c>
+      <c r="I30">
+        <v>0.1985090177947816</v>
+      </c>
+      <c r="J30">
+        <v>-0.04355066549704014</v>
+      </c>
+      <c r="K30">
+        <v>0.05902173894929906</v>
+      </c>
+      <c r="L30">
+        <v>0.1304887599901576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05048751524261255</v>
+        <v>0.03854794129088429</v>
       </c>
       <c r="C31">
-        <v>-0.0188775074640117</v>
+        <v>-0.0461296298202268</v>
       </c>
       <c r="D31">
-        <v>0.01200434029370106</v>
+        <v>0.003268740056973921</v>
       </c>
       <c r="E31">
-        <v>-0.00172290797684566</v>
+        <v>-0.003035059090541963</v>
       </c>
       <c r="F31">
-        <v>-0.02712866244593725</v>
+        <v>0.02461958767992104</v>
       </c>
       <c r="G31">
-        <v>0.02914698501818745</v>
+        <v>0.009357179750787262</v>
       </c>
       <c r="H31">
-        <v>0.03906355745760173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03610464702818823</v>
+      </c>
+      <c r="I31">
+        <v>-0.01977283383774035</v>
+      </c>
+      <c r="J31">
+        <v>-0.003179820019604951</v>
+      </c>
+      <c r="K31">
+        <v>0.03665119080944445</v>
+      </c>
+      <c r="L31">
+        <v>0.02900320976078824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03496518381649786</v>
+        <v>0.04530116788799407</v>
       </c>
       <c r="C32">
-        <v>0.01013868048718379</v>
+        <v>-0.00110182886043842</v>
       </c>
       <c r="D32">
-        <v>-0.002115846928443819</v>
+        <v>-0.03029034289461639</v>
       </c>
       <c r="E32">
-        <v>-0.08077438418525189</v>
+        <v>0.02479672779949552</v>
       </c>
       <c r="F32">
-        <v>-0.09098140854258684</v>
+        <v>0.06806150763573324</v>
       </c>
       <c r="G32">
-        <v>-0.04394924433878073</v>
+        <v>-0.02580474834142404</v>
       </c>
       <c r="H32">
-        <v>0.01577122360492086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.001872259828886569</v>
+      </c>
+      <c r="I32">
+        <v>-0.04079464394361843</v>
+      </c>
+      <c r="J32">
+        <v>-0.02026147151667475</v>
+      </c>
+      <c r="K32">
+        <v>0.07594088793872845</v>
+      </c>
+      <c r="L32">
+        <v>0.008385678452375291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1161801281283678</v>
+        <v>0.0960348627438081</v>
       </c>
       <c r="C33">
-        <v>-0.03285160811407366</v>
+        <v>-0.05888428232699626</v>
       </c>
       <c r="D33">
-        <v>-0.003472366910126472</v>
+        <v>0.002451642109522647</v>
       </c>
       <c r="E33">
-        <v>-0.01803974250378862</v>
+        <v>0.02021745660810331</v>
       </c>
       <c r="F33">
-        <v>-0.0587759980838035</v>
+        <v>0.08124946086842022</v>
       </c>
       <c r="G33">
-        <v>-0.03579121036519056</v>
+        <v>0.004029706651984288</v>
       </c>
       <c r="H33">
-        <v>0.06195603060807711</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.002944984210445154</v>
+      </c>
+      <c r="I33">
+        <v>-0.01288699474647904</v>
+      </c>
+      <c r="J33">
+        <v>0.005039783997905092</v>
+      </c>
+      <c r="K33">
+        <v>0.03529571058373742</v>
+      </c>
+      <c r="L33">
+        <v>0.02341956172366325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05530006514903098</v>
+        <v>0.06455098814251306</v>
       </c>
       <c r="C34">
-        <v>-0.05742304171524456</v>
+        <v>-0.05937848071103304</v>
       </c>
       <c r="D34">
-        <v>0.0005797235031883983</v>
+        <v>0.007434162722076872</v>
       </c>
       <c r="E34">
-        <v>-0.01504307318641341</v>
+        <v>0.02149295544689494</v>
       </c>
       <c r="F34">
-        <v>-0.005252265955768835</v>
+        <v>0.1162089573450009</v>
       </c>
       <c r="G34">
-        <v>-0.0675155729476349</v>
+        <v>0.007512377686492503</v>
       </c>
       <c r="H34">
-        <v>0.05179693750576961</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03647356485488835</v>
+      </c>
+      <c r="I34">
+        <v>-0.02809151163373503</v>
+      </c>
+      <c r="J34">
+        <v>-0.0897338524963977</v>
+      </c>
+      <c r="K34">
+        <v>0.0265290842185887</v>
+      </c>
+      <c r="L34">
+        <v>0.02364519048897259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04567778135407465</v>
+        <v>0.02307113692917221</v>
       </c>
       <c r="C35">
-        <v>-0.0245869227606385</v>
+        <v>-0.02227565413487374</v>
       </c>
       <c r="D35">
-        <v>0.007697580646365274</v>
+        <v>0.005511656997198462</v>
       </c>
       <c r="E35">
-        <v>-0.01535531521738384</v>
+        <v>0.002282073567792838</v>
       </c>
       <c r="F35">
-        <v>0.02352984942102969</v>
+        <v>0.03501424944409399</v>
       </c>
       <c r="G35">
-        <v>-0.01581795189685336</v>
+        <v>0.01907235305302105</v>
       </c>
       <c r="H35">
-        <v>0.06690480340597325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01927194399763131</v>
+      </c>
+      <c r="I35">
+        <v>0.01272657512421352</v>
+      </c>
+      <c r="J35">
+        <v>-0.0384537235213217</v>
+      </c>
+      <c r="K35">
+        <v>0.07933527423921108</v>
+      </c>
+      <c r="L35">
+        <v>0.0007312290750925268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03682997735701077</v>
+        <v>0.02756304694562932</v>
       </c>
       <c r="C36">
-        <v>-0.01192637794684861</v>
+        <v>-0.01499441121708253</v>
       </c>
       <c r="D36">
-        <v>-0.01889542646483847</v>
+        <v>0.001252746410595175</v>
       </c>
       <c r="E36">
-        <v>-0.03376148316743711</v>
+        <v>-0.01429095053396254</v>
       </c>
       <c r="F36">
-        <v>-0.01568295474983629</v>
+        <v>0.06928080049193691</v>
       </c>
       <c r="G36">
-        <v>-0.01524313435977555</v>
+        <v>0.01095774822445943</v>
       </c>
       <c r="H36">
-        <v>0.07078197434816376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01009457101588408</v>
+      </c>
+      <c r="I36">
+        <v>0.005054557726217304</v>
+      </c>
+      <c r="J36">
+        <v>0.03135489441862872</v>
+      </c>
+      <c r="K36">
+        <v>0.03828790255094642</v>
+      </c>
+      <c r="L36">
+        <v>0.01763234274082748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05146689683064182</v>
+        <v>0.02717799773577799</v>
       </c>
       <c r="C38">
-        <v>-0.03090211821380136</v>
+        <v>-0.04188251113501999</v>
       </c>
       <c r="D38">
-        <v>-0.001281563120006822</v>
+        <v>0.01306969540741352</v>
       </c>
       <c r="E38">
-        <v>-0.02657507793911384</v>
+        <v>-0.02188373659808768</v>
       </c>
       <c r="F38">
-        <v>-0.02421897089785677</v>
+        <v>-0.04898327533949475</v>
       </c>
       <c r="G38">
-        <v>-0.03694461232666096</v>
+        <v>0.04114512776790446</v>
       </c>
       <c r="H38">
-        <v>-0.02377725899609457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01146400323324978</v>
+      </c>
+      <c r="I38">
+        <v>0.01219111977628539</v>
+      </c>
+      <c r="J38">
+        <v>-0.0005487421930602521</v>
+      </c>
+      <c r="K38">
+        <v>0.04421119597103527</v>
+      </c>
+      <c r="L38">
+        <v>-0.0699276899365821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1044829728849343</v>
+        <v>0.1088986205207521</v>
       </c>
       <c r="C39">
-        <v>-0.06794017615913671</v>
+        <v>-0.08789440124753255</v>
       </c>
       <c r="D39">
-        <v>0.003611345930011157</v>
+        <v>0.007681307361001784</v>
       </c>
       <c r="E39">
-        <v>-0.02779950048481064</v>
+        <v>0.08842648862767967</v>
       </c>
       <c r="F39">
-        <v>-0.002786203039448269</v>
+        <v>0.1647288339319088</v>
       </c>
       <c r="G39">
-        <v>-0.1221153453316433</v>
+        <v>0.1007695580234185</v>
       </c>
       <c r="H39">
-        <v>0.03702707866581424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.06688494885224167</v>
+      </c>
+      <c r="I39">
+        <v>0.0118061263940727</v>
+      </c>
+      <c r="J39">
+        <v>-0.211820291510799</v>
+      </c>
+      <c r="K39">
+        <v>-0.05392616140348878</v>
+      </c>
+      <c r="L39">
+        <v>0.06578152890260282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04648318821279863</v>
+        <v>0.03275633722082289</v>
       </c>
       <c r="C40">
-        <v>-0.02376294802175949</v>
+        <v>-0.05705308680335536</v>
       </c>
       <c r="D40">
-        <v>0.04372897586927129</v>
+        <v>0.007670439277339689</v>
       </c>
       <c r="E40">
-        <v>-0.1084269208178653</v>
+        <v>-0.04609764600910949</v>
       </c>
       <c r="F40">
-        <v>-0.02027500276494822</v>
+        <v>0.1041224937647923</v>
       </c>
       <c r="G40">
-        <v>-0.1547994263060402</v>
+        <v>0.005695384896881603</v>
       </c>
       <c r="H40">
-        <v>0.1307116403417944</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.08909447881738312</v>
+      </c>
+      <c r="I40">
+        <v>-0.01421298759927214</v>
+      </c>
+      <c r="J40">
+        <v>0.04925611096514957</v>
+      </c>
+      <c r="K40">
+        <v>0.02380380447256441</v>
+      </c>
+      <c r="L40">
+        <v>-0.1140809768789124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04701261589362259</v>
+        <v>0.0379190263524055</v>
       </c>
       <c r="C41">
-        <v>-0.03834960928153719</v>
+        <v>-0.03437636518833556</v>
       </c>
       <c r="D41">
-        <v>0.0002572183692493233</v>
+        <v>0.01762718599252143</v>
       </c>
       <c r="E41">
-        <v>0.005279211267693581</v>
+        <v>0.01469665044350518</v>
       </c>
       <c r="F41">
-        <v>-0.01324621957154802</v>
+        <v>0.02056058449146514</v>
       </c>
       <c r="G41">
-        <v>-0.02957291964180743</v>
+        <v>0.01937425318479444</v>
       </c>
       <c r="H41">
-        <v>0.02134196016558116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.004619212542891997</v>
+      </c>
+      <c r="I41">
+        <v>-0.002781641940654547</v>
+      </c>
+      <c r="J41">
+        <v>-0.02311414849427927</v>
+      </c>
+      <c r="K41">
+        <v>0.05787905731330972</v>
+      </c>
+      <c r="L41">
+        <v>-0.01884963002455442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06593366336782308</v>
+        <v>0.0506840546125832</v>
       </c>
       <c r="C43">
-        <v>-0.03449284794169698</v>
+        <v>-0.037534086482217</v>
       </c>
       <c r="D43">
-        <v>-0.02053015192615339</v>
+        <v>0.01207279215088915</v>
       </c>
       <c r="E43">
-        <v>-0.02874421156845912</v>
+        <v>-0.01348571130836826</v>
       </c>
       <c r="F43">
-        <v>-0.01529265836706705</v>
+        <v>0.01481225280396505</v>
       </c>
       <c r="G43">
-        <v>-0.004247224512943497</v>
+        <v>0.03825285486570185</v>
       </c>
       <c r="H43">
-        <v>-0.007081163818003976</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02235305280708841</v>
+      </c>
+      <c r="I43">
+        <v>0.02439107887739655</v>
+      </c>
+      <c r="J43">
+        <v>-0.04937751879874415</v>
+      </c>
+      <c r="K43">
+        <v>0.04907672892997767</v>
+      </c>
+      <c r="L43">
+        <v>0.01024275604880981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.05109515052438491</v>
+        <v>0.08690060834440499</v>
       </c>
       <c r="C44">
-        <v>-0.02138968127677836</v>
+        <v>-0.06545204014694635</v>
       </c>
       <c r="D44">
-        <v>-0.08317446462220675</v>
+        <v>0.02957452159097413</v>
       </c>
       <c r="E44">
-        <v>-0.06674054102799201</v>
+        <v>-0.08921641563686163</v>
       </c>
       <c r="F44">
-        <v>0.002987451330394778</v>
+        <v>0.1703382662211015</v>
       </c>
       <c r="G44">
-        <v>-0.1129041699711034</v>
+        <v>0.0009790665898697798</v>
       </c>
       <c r="H44">
-        <v>0.04227091639696288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.05230016883167663</v>
+      </c>
+      <c r="I44">
+        <v>-0.02696883022406993</v>
+      </c>
+      <c r="J44">
+        <v>-0.01539510939768835</v>
+      </c>
+      <c r="K44">
+        <v>0.05417816522514188</v>
+      </c>
+      <c r="L44">
+        <v>-0.06375518613954856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04507200935640233</v>
+        <v>0.03023858537500576</v>
       </c>
       <c r="C46">
-        <v>-0.04700736861112573</v>
+        <v>-0.02464089993799768</v>
       </c>
       <c r="D46">
-        <v>-0.01526195989197737</v>
+        <v>0.02327154697469234</v>
       </c>
       <c r="E46">
-        <v>-0.05749941594029154</v>
+        <v>-0.03881150382724491</v>
       </c>
       <c r="F46">
-        <v>-0.0230066124526224</v>
+        <v>0.03675219136049898</v>
       </c>
       <c r="G46">
-        <v>-0.01268445871219824</v>
+        <v>0.0223452063863203</v>
       </c>
       <c r="H46">
-        <v>0.0316650855480059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.03793744166640043</v>
+      </c>
+      <c r="I46">
+        <v>-0.03624516865177381</v>
+      </c>
+      <c r="J46">
+        <v>0.02441448540407953</v>
+      </c>
+      <c r="K46">
+        <v>0.1336750829678532</v>
+      </c>
+      <c r="L46">
+        <v>0.03759295003589491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04356477118292438</v>
+        <v>0.04234570954251808</v>
       </c>
       <c r="C47">
-        <v>-0.01675068015378295</v>
+        <v>-0.02659822012515671</v>
       </c>
       <c r="D47">
-        <v>-0.003141615827575215</v>
+        <v>0.005972240111569303</v>
       </c>
       <c r="E47">
-        <v>-0.06907826465138775</v>
+        <v>-0.02045335942697759</v>
       </c>
       <c r="F47">
-        <v>-0.01723823080166955</v>
+        <v>0.03636281745468302</v>
       </c>
       <c r="G47">
-        <v>0.01598792383907642</v>
+        <v>-0.001451011238386235</v>
       </c>
       <c r="H47">
-        <v>0.02400250738950311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01425648726034681</v>
+      </c>
+      <c r="I47">
+        <v>0.02356349822485948</v>
+      </c>
+      <c r="J47">
+        <v>0.02432983232214829</v>
+      </c>
+      <c r="K47">
+        <v>0.05052659195645713</v>
+      </c>
+      <c r="L47">
+        <v>-0.01647614221091179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04147741847542615</v>
+        <v>0.04203409990928683</v>
       </c>
       <c r="C48">
-        <v>-0.01565527092012695</v>
+        <v>-0.01889779400579756</v>
       </c>
       <c r="D48">
-        <v>0.005166384417244213</v>
+        <v>0.007942799644486694</v>
       </c>
       <c r="E48">
-        <v>-0.05540076804525276</v>
+        <v>-0.01183281533368626</v>
       </c>
       <c r="F48">
-        <v>-0.03166858824021335</v>
+        <v>0.06887109603592269</v>
       </c>
       <c r="G48">
-        <v>0.0009179709154995471</v>
+        <v>-0.008585511031488286</v>
       </c>
       <c r="H48">
-        <v>0.05456361899742941</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.04080536744241141</v>
+      </c>
+      <c r="I48">
+        <v>0.006092624025487519</v>
+      </c>
+      <c r="J48">
+        <v>0.01010422651586337</v>
+      </c>
+      <c r="K48">
+        <v>0.0540735839929324</v>
+      </c>
+      <c r="L48">
+        <v>0.03096747243262768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2306477504998619</v>
+        <v>0.2238589107003637</v>
       </c>
       <c r="C49">
-        <v>-0.116213533008247</v>
+        <v>-0.06569165718203095</v>
       </c>
       <c r="D49">
-        <v>-0.03834661253117994</v>
+        <v>0.08667311430175847</v>
       </c>
       <c r="E49">
-        <v>0.02793210356853892</v>
+        <v>0.03551744690898483</v>
       </c>
       <c r="F49">
-        <v>0.1689550891974629</v>
+        <v>-0.2330370303881941</v>
       </c>
       <c r="G49">
-        <v>0.008154355867128848</v>
+        <v>-0.06156476952616859</v>
       </c>
       <c r="H49">
-        <v>-0.1585685730340873</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.2070676975375008</v>
+      </c>
+      <c r="I49">
+        <v>-0.03253800807162844</v>
+      </c>
+      <c r="J49">
+        <v>-0.09079266105125197</v>
+      </c>
+      <c r="K49">
+        <v>-0.1683343512315631</v>
+      </c>
+      <c r="L49">
+        <v>0.02739246669551742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05478729246190117</v>
+        <v>0.04493232468195842</v>
       </c>
       <c r="C50">
-        <v>-0.02567251749328729</v>
+        <v>-0.03291434996525438</v>
       </c>
       <c r="D50">
-        <v>0.007357572981205327</v>
+        <v>0.001498457577840451</v>
       </c>
       <c r="E50">
-        <v>-0.02094910641247384</v>
+        <v>0.001256682315513731</v>
       </c>
       <c r="F50">
-        <v>-0.05500552158759557</v>
+        <v>0.04495491831661951</v>
       </c>
       <c r="G50">
-        <v>0.03201266789619922</v>
+        <v>0.03100434363725251</v>
       </c>
       <c r="H50">
-        <v>0.04232789061898552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02775610950713731</v>
+      </c>
+      <c r="I50">
+        <v>-0.009351265849579769</v>
+      </c>
+      <c r="J50">
+        <v>0.01973715381540462</v>
+      </c>
+      <c r="K50">
+        <v>0.05320111435793746</v>
+      </c>
+      <c r="L50">
+        <v>0.033302524024879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02920335950710967</v>
+        <v>0.02496462747320619</v>
       </c>
       <c r="C51">
-        <v>-0.01224659242184917</v>
+        <v>-0.002336494871121685</v>
       </c>
       <c r="D51">
-        <v>-0.004633685579574048</v>
+        <v>0.01599484171145369</v>
       </c>
       <c r="E51">
-        <v>0.005029683736843652</v>
+        <v>-0.003412130263813623</v>
       </c>
       <c r="F51">
-        <v>0.005298425562049999</v>
+        <v>-0.02336171242386672</v>
       </c>
       <c r="G51">
-        <v>-0.007702098954657086</v>
+        <v>-0.007610031094794246</v>
       </c>
       <c r="H51">
-        <v>-0.02978711507787878</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.007725093608072535</v>
+      </c>
+      <c r="I51">
+        <v>0.01148810868777555</v>
+      </c>
+      <c r="J51">
+        <v>-0.06213491881252952</v>
+      </c>
+      <c r="K51">
+        <v>-0.0317463841676657</v>
+      </c>
+      <c r="L51">
+        <v>0.0242380618227343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04792353686126386</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.02486276478820365</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.00466588744190006</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01059565665353869</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02857476408497729</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.06538419248211171</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.0294971164698274</v>
+      </c>
+      <c r="I52">
+        <v>-0.03772310134979769</v>
+      </c>
+      <c r="J52">
+        <v>0.04391557189750914</v>
+      </c>
+      <c r="K52">
+        <v>-0.04191419647836593</v>
+      </c>
+      <c r="L52">
+        <v>0.006350821945477579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1677322146331195</v>
+        <v>0.1626069591337385</v>
       </c>
       <c r="C53">
-        <v>-0.001402178842343596</v>
+        <v>-0.04558502711992983</v>
       </c>
       <c r="D53">
-        <v>-0.02414296542350277</v>
+        <v>0.02402042628133181</v>
       </c>
       <c r="E53">
-        <v>0.1161694772593428</v>
+        <v>0.007961781404430485</v>
       </c>
       <c r="F53">
-        <v>-0.2154463336298607</v>
+        <v>-0.05972239201607445</v>
       </c>
       <c r="G53">
-        <v>0.00788754329906827</v>
+        <v>0.1526811304481769</v>
       </c>
       <c r="H53">
-        <v>0.07472816524442191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.2097911157678534</v>
+      </c>
+      <c r="I53">
+        <v>-0.1386246972388699</v>
+      </c>
+      <c r="J53">
+        <v>0.09040220635088805</v>
+      </c>
+      <c r="K53">
+        <v>-0.02823475905329318</v>
+      </c>
+      <c r="L53">
+        <v>0.01676460232460439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.05102211156612771</v>
+        <v>0.05553912939481894</v>
       </c>
       <c r="C54">
-        <v>-0.01326737834927144</v>
+        <v>-0.04372987439138208</v>
       </c>
       <c r="D54">
-        <v>-0.02369841114431421</v>
+        <v>0.01238743491061847</v>
       </c>
       <c r="E54">
-        <v>-0.05573172031007641</v>
+        <v>-0.01846278070786082</v>
       </c>
       <c r="F54">
-        <v>-0.02883267156921342</v>
+        <v>0.125148516018867</v>
       </c>
       <c r="G54">
-        <v>-0.03753675857516299</v>
+        <v>-0.04246747026588121</v>
       </c>
       <c r="H54">
-        <v>0.07221734619599472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.01932885219624875</v>
+      </c>
+      <c r="I54">
+        <v>0.02548396670614093</v>
+      </c>
+      <c r="J54">
+        <v>0.06068170575797929</v>
+      </c>
+      <c r="K54">
+        <v>0.1468110847104133</v>
+      </c>
+      <c r="L54">
+        <v>-0.01870973991305908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09168912770911396</v>
+        <v>0.08805001826065015</v>
       </c>
       <c r="C55">
-        <v>-0.006808891785436063</v>
+        <v>-0.039552677739276</v>
       </c>
       <c r="D55">
-        <v>-0.02142192300861935</v>
+        <v>0.02104597734346522</v>
       </c>
       <c r="E55">
-        <v>0.04247709980623972</v>
+        <v>0.02324565239990108</v>
       </c>
       <c r="F55">
-        <v>-0.174979290236895</v>
+        <v>0.01007236601917679</v>
       </c>
       <c r="G55">
-        <v>0.01108741809480115</v>
+        <v>0.07408757845627639</v>
       </c>
       <c r="H55">
-        <v>0.09917475438614576</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1295623743374277</v>
+      </c>
+      <c r="I55">
+        <v>-0.09254358011046643</v>
+      </c>
+      <c r="J55">
+        <v>0.03639637297898091</v>
+      </c>
+      <c r="K55">
+        <v>0.00666164342849221</v>
+      </c>
+      <c r="L55">
+        <v>0.005393020957364842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1660094365648004</v>
+        <v>0.1535640793250116</v>
       </c>
       <c r="C56">
-        <v>-0.004695465928188286</v>
+        <v>-0.06122974625716868</v>
       </c>
       <c r="D56">
-        <v>-0.02185633820814009</v>
+        <v>0.04705273610935503</v>
       </c>
       <c r="E56">
-        <v>0.1039990655301962</v>
+        <v>0.02367974596483636</v>
       </c>
       <c r="F56">
-        <v>-0.2254225555266419</v>
+        <v>-0.033764783145317</v>
       </c>
       <c r="G56">
-        <v>0.04394943587461327</v>
+        <v>0.1415720925981422</v>
       </c>
       <c r="H56">
-        <v>0.07381071567622892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1817528571533954</v>
+      </c>
+      <c r="I56">
+        <v>-0.1368854760247902</v>
+      </c>
+      <c r="J56">
+        <v>0.06459866390465746</v>
+      </c>
+      <c r="K56">
+        <v>-0.02817751281537776</v>
+      </c>
+      <c r="L56">
+        <v>-0.01552148526735275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02451898742967873</v>
+        <v>0.04169742831776034</v>
       </c>
       <c r="C58">
-        <v>-0.04402492811531712</v>
+        <v>-0.0372398123783101</v>
       </c>
       <c r="D58">
-        <v>0.02658208365595096</v>
+        <v>-0.01404324193526444</v>
       </c>
       <c r="E58">
-        <v>-0.40092287840865</v>
+        <v>-0.08324136695516164</v>
       </c>
       <c r="F58">
-        <v>0.3336135817653442</v>
+        <v>0.02578861897604905</v>
       </c>
       <c r="G58">
-        <v>0.1856244506371387</v>
+        <v>0.02945495043655761</v>
       </c>
       <c r="H58">
-        <v>0.575078645186008</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1457914453399165</v>
+      </c>
+      <c r="I58">
+        <v>0.126118812252332</v>
+      </c>
+      <c r="J58">
+        <v>-0.1899013458424887</v>
+      </c>
+      <c r="K58">
+        <v>0.137847157106691</v>
+      </c>
+      <c r="L58">
+        <v>0.3328809928795323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1849970062331937</v>
+        <v>0.2144771131068449</v>
       </c>
       <c r="C59">
-        <v>0.4018682434948959</v>
+        <v>0.2996566257651612</v>
       </c>
       <c r="D59">
-        <v>-0.09229652059893875</v>
+        <v>0.02149158954211991</v>
       </c>
       <c r="E59">
-        <v>0.01325729614938145</v>
+        <v>0.03851928723282885</v>
       </c>
       <c r="F59">
-        <v>-0.02784906387941978</v>
+        <v>0.02586900399598872</v>
       </c>
       <c r="G59">
-        <v>-0.0657866827291161</v>
+        <v>-0.02684733067095262</v>
       </c>
       <c r="H59">
-        <v>-0.02116713416496065</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1152458574959313</v>
+      </c>
+      <c r="I59">
+        <v>-0.04464587846093946</v>
+      </c>
+      <c r="J59">
+        <v>-0.05109249944639581</v>
+      </c>
+      <c r="K59">
+        <v>-0.07975917999479673</v>
+      </c>
+      <c r="L59">
+        <v>-0.07052709389493082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2609568273884963</v>
+        <v>0.2380846266230843</v>
       </c>
       <c r="C60">
-        <v>-0.05422366218014116</v>
+        <v>-0.1084042871655849</v>
       </c>
       <c r="D60">
-        <v>-0.07666939903931588</v>
+        <v>0.1056217233784694</v>
       </c>
       <c r="E60">
-        <v>0.02178030757999262</v>
+        <v>0.04288467614122216</v>
       </c>
       <c r="F60">
-        <v>0.05674959204251703</v>
+        <v>-0.1402944279088005</v>
       </c>
       <c r="G60">
-        <v>0.06539286909906536</v>
+        <v>-0.01214528382119749</v>
       </c>
       <c r="H60">
-        <v>-0.1783676881352219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.05653455610051075</v>
+      </c>
+      <c r="I60">
+        <v>0.04885312515021215</v>
+      </c>
+      <c r="J60">
+        <v>0.1027234569156055</v>
+      </c>
+      <c r="K60">
+        <v>-0.2316130749017279</v>
+      </c>
+      <c r="L60">
+        <v>0.1028284390310947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09139627455061652</v>
+        <v>0.1042581405099472</v>
       </c>
       <c r="C61">
-        <v>-0.03881890974779204</v>
+        <v>-0.05920911245234936</v>
       </c>
       <c r="D61">
-        <v>-0.007070744917147496</v>
+        <v>0.02424549952551233</v>
       </c>
       <c r="E61">
-        <v>0.003192514046511284</v>
+        <v>0.04440988232092936</v>
       </c>
       <c r="F61">
-        <v>-0.01199609082981988</v>
+        <v>0.143039315264418</v>
       </c>
       <c r="G61">
-        <v>-0.04673354832373767</v>
+        <v>0.07638180704356311</v>
       </c>
       <c r="H61">
-        <v>0.007611865874078552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.005212926233695262</v>
+      </c>
+      <c r="I61">
+        <v>-0.01863771059833847</v>
+      </c>
+      <c r="J61">
+        <v>-0.1156196913400807</v>
+      </c>
+      <c r="K61">
+        <v>0.02341485248930796</v>
+      </c>
+      <c r="L61">
+        <v>0.02609048444736441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1496817293837011</v>
+        <v>0.1454446873142916</v>
       </c>
       <c r="C62">
-        <v>-0.02164466707815838</v>
+        <v>-0.06157427444647637</v>
       </c>
       <c r="D62">
-        <v>0.01929348758731037</v>
+        <v>0.01760192682652917</v>
       </c>
       <c r="E62">
-        <v>0.1720900852159302</v>
+        <v>0.03267013618799131</v>
       </c>
       <c r="F62">
-        <v>-0.2102950149442985</v>
+        <v>-0.04861063484301695</v>
       </c>
       <c r="G62">
-        <v>-0.02295952014766309</v>
+        <v>0.1106618873875932</v>
       </c>
       <c r="H62">
-        <v>0.07311062210678752</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1561498227627948</v>
+      </c>
+      <c r="I62">
+        <v>-0.1646527131178021</v>
+      </c>
+      <c r="J62">
+        <v>0.1207523394430954</v>
+      </c>
+      <c r="K62">
+        <v>0.002266128662434448</v>
+      </c>
+      <c r="L62">
+        <v>-0.03183686239163027</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04065362939824903</v>
+        <v>0.04426381442338242</v>
       </c>
       <c r="C63">
-        <v>-0.02397517939838458</v>
+        <v>-0.02710830782902936</v>
       </c>
       <c r="D63">
-        <v>0.00644827822848307</v>
+        <v>-0.01533397585109225</v>
       </c>
       <c r="E63">
-        <v>-0.005868955864007108</v>
+        <v>0.008602067756116803</v>
       </c>
       <c r="F63">
-        <v>-0.01398767270948512</v>
+        <v>0.06885806836564215</v>
       </c>
       <c r="G63">
-        <v>-0.00524575783507931</v>
+        <v>-0.001667415849046324</v>
       </c>
       <c r="H63">
-        <v>0.05557181650898826</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.009684745461057286</v>
+      </c>
+      <c r="I63">
+        <v>0.005373599135751548</v>
+      </c>
+      <c r="J63">
+        <v>-0.003862006087600739</v>
+      </c>
+      <c r="K63">
+        <v>0.04511399953701327</v>
+      </c>
+      <c r="L63">
+        <v>0.03494179241825109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1059484638466424</v>
+        <v>0.0971881132892536</v>
       </c>
       <c r="C64">
-        <v>-0.02317524743700744</v>
+        <v>-0.04508007305270535</v>
       </c>
       <c r="D64">
-        <v>-0.03918740949675586</v>
+        <v>0.05086570091105483</v>
       </c>
       <c r="E64">
-        <v>-0.03602290081367294</v>
+        <v>-0.0162048903416729</v>
       </c>
       <c r="F64">
-        <v>0.02124741934502818</v>
+        <v>0.0730394144973588</v>
       </c>
       <c r="G64">
-        <v>-0.07171402242967659</v>
+        <v>0.02402610204737534</v>
       </c>
       <c r="H64">
-        <v>-0.03628490471509781</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06852766865353295</v>
+      </c>
+      <c r="I64">
+        <v>0.05820746705687797</v>
+      </c>
+      <c r="J64">
+        <v>-0.01627705188080268</v>
+      </c>
+      <c r="K64">
+        <v>-0.01060310588361025</v>
+      </c>
+      <c r="L64">
+        <v>-0.006815288208953964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1245535970616411</v>
+        <v>0.1235207948979546</v>
       </c>
       <c r="C65">
-        <v>-0.04380088341777651</v>
+        <v>-0.04908268875294371</v>
       </c>
       <c r="D65">
-        <v>-0.03121365381555367</v>
+        <v>-0.01505709069562931</v>
       </c>
       <c r="E65">
-        <v>-0.08438702140004643</v>
+        <v>0.01367592427035461</v>
       </c>
       <c r="F65">
-        <v>0.1575624637574335</v>
+        <v>-0.02196436508722683</v>
       </c>
       <c r="G65">
-        <v>0.2587465254672306</v>
+        <v>-0.07959142677842278</v>
       </c>
       <c r="H65">
-        <v>0.2230570366704712</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.007512051375878797</v>
+      </c>
+      <c r="I65">
+        <v>0.3222826616049904</v>
+      </c>
+      <c r="J65">
+        <v>0.5026486546771115</v>
+      </c>
+      <c r="K65">
+        <v>-0.05112179955207975</v>
+      </c>
+      <c r="L65">
+        <v>0.3944875942965879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1644909232173416</v>
+        <v>0.1375424140339407</v>
       </c>
       <c r="C66">
-        <v>-0.08447356509297908</v>
+        <v>-0.117922683757375</v>
       </c>
       <c r="D66">
-        <v>0.01061256317963245</v>
+        <v>0.01157945298654677</v>
       </c>
       <c r="E66">
-        <v>0.01157975941279808</v>
+        <v>0.1048500851065465</v>
       </c>
       <c r="F66">
-        <v>-0.01062804817863908</v>
+        <v>0.165483002660263</v>
       </c>
       <c r="G66">
-        <v>-0.2448656381684949</v>
+        <v>0.1303737701604202</v>
       </c>
       <c r="H66">
-        <v>0.06565585317709298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08724884167271192</v>
+      </c>
+      <c r="I66">
+        <v>-0.03788958514234301</v>
+      </c>
+      <c r="J66">
+        <v>-0.2101039612635338</v>
+      </c>
+      <c r="K66">
+        <v>-0.1189346100895709</v>
+      </c>
+      <c r="L66">
+        <v>0.03968733312659094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09823348320339355</v>
+        <v>0.07497892275727122</v>
       </c>
       <c r="C67">
-        <v>-0.04888744748855434</v>
+        <v>-0.05261679340882264</v>
       </c>
       <c r="D67">
-        <v>-0.02166047053994049</v>
+        <v>0.01184206373352169</v>
       </c>
       <c r="E67">
-        <v>-0.006772708236256393</v>
+        <v>-0.02535445397892216</v>
       </c>
       <c r="F67">
-        <v>-0.02052100337766914</v>
+        <v>-0.03907640807306557</v>
       </c>
       <c r="G67">
-        <v>-0.0352358813938772</v>
+        <v>0.03758916970301365</v>
       </c>
       <c r="H67">
-        <v>-0.04442675195276548</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.03619322313359132</v>
+      </c>
+      <c r="I67">
+        <v>0.03497742464051131</v>
+      </c>
+      <c r="J67">
+        <v>-0.04384357298018594</v>
+      </c>
+      <c r="K67">
+        <v>-0.01791705887128006</v>
+      </c>
+      <c r="L67">
+        <v>-0.09788186589433483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06409171905915891</v>
+        <v>0.1168996641522801</v>
       </c>
       <c r="C68">
-        <v>0.2906841271385495</v>
+        <v>0.2708266039727925</v>
       </c>
       <c r="D68">
-        <v>-0.03410878669302721</v>
+        <v>-0.02214976769938492</v>
       </c>
       <c r="E68">
-        <v>-0.02229882818914445</v>
+        <v>0.009644772866858123</v>
       </c>
       <c r="F68">
-        <v>-0.02383159016578114</v>
+        <v>0.04395407072733595</v>
       </c>
       <c r="G68">
-        <v>0.03346374275262642</v>
+        <v>0.00287155106075649</v>
       </c>
       <c r="H68">
-        <v>0.03751984348981483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01691325990184061</v>
+      </c>
+      <c r="I68">
+        <v>0.01863373356654669</v>
+      </c>
+      <c r="J68">
+        <v>0.02886529011949029</v>
+      </c>
+      <c r="K68">
+        <v>0.01769928415963235</v>
+      </c>
+      <c r="L68">
+        <v>0.04798146797614335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04327862566248442</v>
+        <v>0.0401910223610651</v>
       </c>
       <c r="C69">
-        <v>-0.02011784104345456</v>
+        <v>-0.00619662101831748</v>
       </c>
       <c r="D69">
-        <v>-0.005661722006589637</v>
+        <v>0.01037403476229786</v>
       </c>
       <c r="E69">
-        <v>-0.01264351577051453</v>
+        <v>-0.005558198054880834</v>
       </c>
       <c r="F69">
-        <v>-0.02059170444926326</v>
+        <v>0.01722465179217796</v>
       </c>
       <c r="G69">
-        <v>-0.02957359778255261</v>
+        <v>0.03618585239827848</v>
       </c>
       <c r="H69">
-        <v>0.02088481737188327</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02221755256103977</v>
+      </c>
+      <c r="I69">
+        <v>0.01676210499865687</v>
+      </c>
+      <c r="J69">
+        <v>0.001252832635867367</v>
+      </c>
+      <c r="K69">
+        <v>0.02379547388802612</v>
+      </c>
+      <c r="L69">
+        <v>-0.00336819711181831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07379306447463206</v>
+        <v>0.05149123777750853</v>
       </c>
       <c r="C70">
-        <v>-0.01054814325384457</v>
+        <v>-0.01749714049253876</v>
       </c>
       <c r="D70">
-        <v>-0.03519416916388952</v>
+        <v>0.03449116109576863</v>
       </c>
       <c r="E70">
-        <v>-0.005318401713687426</v>
+        <v>0.02295081534750601</v>
       </c>
       <c r="F70">
-        <v>0.08979620981491582</v>
+        <v>0.01878711238478983</v>
       </c>
       <c r="G70">
-        <v>0.04531280597236081</v>
+        <v>-0.02431040434530402</v>
       </c>
       <c r="H70">
-        <v>-0.06106944175168205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02023130985058197</v>
+      </c>
+      <c r="I70">
+        <v>0.1095540505688997</v>
+      </c>
+      <c r="J70">
+        <v>0.0806556260374125</v>
+      </c>
+      <c r="K70">
+        <v>0.2889319595119552</v>
+      </c>
+      <c r="L70">
+        <v>-0.1824285905112928</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.0745784648720092</v>
+        <v>0.1314725477297674</v>
       </c>
       <c r="C71">
-        <v>0.288512884752282</v>
+        <v>0.2833969018918236</v>
       </c>
       <c r="D71">
-        <v>-0.06259898102153658</v>
+        <v>0.008404835422354663</v>
       </c>
       <c r="E71">
-        <v>-0.009386083075267723</v>
+        <v>0.000965134139890066</v>
       </c>
       <c r="F71">
-        <v>0.006012872944413945</v>
+        <v>0.04833585424568736</v>
       </c>
       <c r="G71">
-        <v>0.01645307400950548</v>
+        <v>0.03731191992374231</v>
       </c>
       <c r="H71">
-        <v>0.01749030857690154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.008962802951880228</v>
+      </c>
+      <c r="I71">
+        <v>0.02438728784330027</v>
+      </c>
+      <c r="J71">
+        <v>-0.002388377124109783</v>
+      </c>
+      <c r="K71">
+        <v>-0.005098666942636053</v>
+      </c>
+      <c r="L71">
+        <v>0.03219892881998247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1655449677259495</v>
+        <v>0.1493281950442544</v>
       </c>
       <c r="C72">
-        <v>0.01369014091356771</v>
+        <v>-0.02941502003655812</v>
       </c>
       <c r="D72">
-        <v>0.2345842835582519</v>
+        <v>-0.09246646323936608</v>
       </c>
       <c r="E72">
-        <v>0.03081533130524296</v>
+        <v>0.02834251797142711</v>
       </c>
       <c r="F72">
-        <v>-0.04735912493651484</v>
+        <v>0.001742344472831688</v>
       </c>
       <c r="G72">
-        <v>-0.06745642570252527</v>
+        <v>0.06614722061221844</v>
       </c>
       <c r="H72">
-        <v>0.0426619550773819</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.03912570101401221</v>
+      </c>
+      <c r="I72">
+        <v>-0.03080688906732629</v>
+      </c>
+      <c r="J72">
+        <v>0.1242395658468163</v>
+      </c>
+      <c r="K72">
+        <v>-0.09651949638595597</v>
+      </c>
+      <c r="L72">
+        <v>0.01478201090839659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2894401630433797</v>
+        <v>0.237778533444512</v>
       </c>
       <c r="C73">
-        <v>-0.1766619974228473</v>
+        <v>-0.1282437539130807</v>
       </c>
       <c r="D73">
-        <v>-0.08058384238590025</v>
+        <v>0.1599754920211292</v>
       </c>
       <c r="E73">
-        <v>0.08053300959362379</v>
+        <v>0.1089086302096175</v>
       </c>
       <c r="F73">
-        <v>0.2856268362088576</v>
+        <v>-0.4412115248518452</v>
       </c>
       <c r="G73">
-        <v>0.1474090613108635</v>
+        <v>0.02640582545014131</v>
       </c>
       <c r="H73">
-        <v>-0.08455697928323709</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2525916881750107</v>
+      </c>
+      <c r="I73">
+        <v>0.1550021973179976</v>
+      </c>
+      <c r="J73">
+        <v>-0.265896426974616</v>
+      </c>
+      <c r="K73">
+        <v>-0.2002069048013567</v>
+      </c>
+      <c r="L73">
+        <v>0.09481783471760688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.0970738601596083</v>
+        <v>0.1038670413600554</v>
       </c>
       <c r="C74">
-        <v>-0.03382590167806587</v>
+        <v>-0.06925583503782154</v>
       </c>
       <c r="D74">
-        <v>-0.007181116790260364</v>
+        <v>0.006765806408655184</v>
       </c>
       <c r="E74">
-        <v>0.04086147072900935</v>
+        <v>0.01276224768765338</v>
       </c>
       <c r="F74">
-        <v>-0.09413014776444474</v>
+        <v>-0.03585084310473859</v>
       </c>
       <c r="G74">
-        <v>0.04548982477754106</v>
+        <v>0.124135023566314</v>
       </c>
       <c r="H74">
-        <v>0.06543841692759625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.08862150989803361</v>
+      </c>
+      <c r="I74">
+        <v>-0.05998426817054207</v>
+      </c>
+      <c r="J74">
+        <v>0.02083914253951295</v>
+      </c>
+      <c r="K74">
+        <v>-0.0031787933236984</v>
+      </c>
+      <c r="L74">
+        <v>0.007258113087590484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09854999266389844</v>
+        <v>0.09986663560208073</v>
       </c>
       <c r="C75">
-        <v>-0.02164325159762805</v>
+        <v>-0.05253937943107773</v>
       </c>
       <c r="D75">
-        <v>0.001029587409078715</v>
+        <v>0.004637215325351838</v>
       </c>
       <c r="E75">
-        <v>0.04693912203155545</v>
+        <v>0.008422154773830088</v>
       </c>
       <c r="F75">
-        <v>-0.1232837663260735</v>
+        <v>-0.03049927424908665</v>
       </c>
       <c r="G75">
-        <v>0.04240659900135169</v>
+        <v>0.04374827231692296</v>
       </c>
       <c r="H75">
-        <v>0.02874347177540253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1216106667690033</v>
+      </c>
+      <c r="I75">
+        <v>-0.07401528325259629</v>
+      </c>
+      <c r="J75">
+        <v>0.03938461259278923</v>
+      </c>
+      <c r="K75">
+        <v>-0.01121045343958229</v>
+      </c>
+      <c r="L75">
+        <v>-0.003622741317474074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1338669719682604</v>
+        <v>0.07244497911957326</v>
       </c>
       <c r="C76">
-        <v>-0.03920108390568509</v>
+        <v>-0.04608660800434389</v>
       </c>
       <c r="D76">
-        <v>-0.0217073565360509</v>
+        <v>0.03318317398582635</v>
       </c>
       <c r="E76">
-        <v>0.05017259114349074</v>
+        <v>-0.0007023878218387526</v>
       </c>
       <c r="F76">
-        <v>-0.2262279286585516</v>
+        <v>-0.06661084491886217</v>
       </c>
       <c r="G76">
-        <v>0.06509730918640638</v>
+        <v>0.06562442460538084</v>
       </c>
       <c r="H76">
-        <v>0.04376995468179027</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1684251779322757</v>
+      </c>
+      <c r="I76">
+        <v>-0.08244129441893522</v>
+      </c>
+      <c r="J76">
+        <v>-0.01159961298094943</v>
+      </c>
+      <c r="K76">
+        <v>0.04495402952139513</v>
+      </c>
+      <c r="L76">
+        <v>0.002063831470030815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07625933570041829</v>
+        <v>0.07072899538734423</v>
       </c>
       <c r="C77">
-        <v>-0.03226897906823569</v>
+        <v>-0.03393113576337876</v>
       </c>
       <c r="D77">
-        <v>-0.02797818981284254</v>
+        <v>0.03815554793408123</v>
       </c>
       <c r="E77">
-        <v>-0.1109754954133163</v>
+        <v>0.00352327389305805</v>
       </c>
       <c r="F77">
-        <v>0.2214995086412614</v>
+        <v>0.2702070791142647</v>
       </c>
       <c r="G77">
-        <v>-0.6125890505887914</v>
+        <v>-0.06180769178812791</v>
       </c>
       <c r="H77">
-        <v>-0.2376324779404156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.08304614104948475</v>
+      </c>
+      <c r="I77">
+        <v>0.2304362115083969</v>
+      </c>
+      <c r="J77">
+        <v>0.09931709468905382</v>
+      </c>
+      <c r="K77">
+        <v>-0.4868746787799643</v>
+      </c>
+      <c r="L77">
+        <v>-0.4951860738079812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1870404640087755</v>
+        <v>0.1542792326196503</v>
       </c>
       <c r="C78">
-        <v>-0.08476574730002612</v>
+        <v>-0.117529280000258</v>
       </c>
       <c r="D78">
-        <v>-0.04411223287818847</v>
+        <v>-0.03740975706779873</v>
       </c>
       <c r="E78">
-        <v>-0.2159742529473698</v>
+        <v>-0.1920703373430459</v>
       </c>
       <c r="F78">
-        <v>-0.04434058774563202</v>
+        <v>0.1123011059458202</v>
       </c>
       <c r="G78">
-        <v>-0.08168059141175604</v>
+        <v>-0.7443163402063895</v>
       </c>
       <c r="H78">
-        <v>-0.08542910728520051</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4092348569287649</v>
+      </c>
+      <c r="I78">
+        <v>-0.07689883878281135</v>
+      </c>
+      <c r="J78">
+        <v>-0.2326219874113767</v>
+      </c>
+      <c r="K78">
+        <v>-0.158767187276136</v>
+      </c>
+      <c r="L78">
+        <v>0.134983433751091</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1355236454022638</v>
+        <v>0.1350288186128768</v>
       </c>
       <c r="C79">
-        <v>-0.02960344241356259</v>
+        <v>-0.0678687881411708</v>
       </c>
       <c r="D79">
-        <v>-0.001838383145652138</v>
+        <v>0.0218434918931469</v>
       </c>
       <c r="E79">
-        <v>0.06866285041229954</v>
+        <v>-0.001562938600033159</v>
       </c>
       <c r="F79">
-        <v>-0.1650659355484601</v>
+        <v>0.001107866228484943</v>
       </c>
       <c r="G79">
-        <v>0.004743896290445281</v>
+        <v>0.1118039607056677</v>
       </c>
       <c r="H79">
-        <v>0.06591299440524219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1261966276369282</v>
+      </c>
+      <c r="I79">
+        <v>-0.1060583344690958</v>
+      </c>
+      <c r="J79">
+        <v>0.07135696763480005</v>
+      </c>
+      <c r="K79">
+        <v>-0.0113052555393199</v>
+      </c>
+      <c r="L79">
+        <v>0.001151738591957396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03908943278190168</v>
+        <v>0.06107846486868081</v>
       </c>
       <c r="C80">
-        <v>-0.01940845302286085</v>
+        <v>-0.03339710170180791</v>
       </c>
       <c r="D80">
-        <v>-0.01405990517521889</v>
+        <v>0.02542185887074268</v>
       </c>
       <c r="E80">
-        <v>0.03624738332647962</v>
+        <v>0.06471962575791688</v>
       </c>
       <c r="F80">
-        <v>0.02558786207084815</v>
+        <v>0.04747127112718234</v>
       </c>
       <c r="G80">
-        <v>0.001653984157032835</v>
+        <v>-0.0252057678658265</v>
       </c>
       <c r="H80">
-        <v>0.04549635759773649</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.04301120824244742</v>
+      </c>
+      <c r="I80">
+        <v>0.08082707130676299</v>
+      </c>
+      <c r="J80">
+        <v>0.01068157745377831</v>
+      </c>
+      <c r="K80">
+        <v>0.173422493266938</v>
+      </c>
+      <c r="L80">
+        <v>0.04602902759846789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1035979521420182</v>
+        <v>0.1228001934397566</v>
       </c>
       <c r="C81">
-        <v>-0.02419731396808597</v>
+        <v>-0.0602205233338397</v>
       </c>
       <c r="D81">
-        <v>-0.01260224345623416</v>
+        <v>0.02638658003949642</v>
       </c>
       <c r="E81">
-        <v>0.07662476564430301</v>
+        <v>-0.002872501134662129</v>
       </c>
       <c r="F81">
-        <v>-0.1250492610136786</v>
+        <v>0.008669532512315087</v>
       </c>
       <c r="G81">
-        <v>0.0106738847720099</v>
+        <v>0.07619222570723966</v>
       </c>
       <c r="H81">
-        <v>-0.02612847862390016</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.08521311616105944</v>
+      </c>
+      <c r="I81">
+        <v>-0.109984768853147</v>
+      </c>
+      <c r="J81">
+        <v>0.03661157280114936</v>
+      </c>
+      <c r="K81">
+        <v>-0.006179535876699485</v>
+      </c>
+      <c r="L81">
+        <v>-0.004432093336852975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.11333818143975</v>
+        <v>0.1285221701350048</v>
       </c>
       <c r="C82">
-        <v>-0.02711893238631266</v>
+        <v>-0.04686911100092621</v>
       </c>
       <c r="D82">
-        <v>-0.07043580841008677</v>
+        <v>0.04170261083542364</v>
       </c>
       <c r="E82">
-        <v>0.1019789319352658</v>
+        <v>0.02085403667497811</v>
       </c>
       <c r="F82">
-        <v>-0.2227869970039092</v>
+        <v>-0.03190219103515016</v>
       </c>
       <c r="G82">
-        <v>0.003843747948061618</v>
+        <v>0.1598536773392142</v>
       </c>
       <c r="H82">
-        <v>0.1035576687302183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1603310023931208</v>
+      </c>
+      <c r="I82">
+        <v>-0.1625284214535679</v>
+      </c>
+      <c r="J82">
+        <v>0.02271062231433183</v>
+      </c>
+      <c r="K82">
+        <v>0.06462103979789333</v>
+      </c>
+      <c r="L82">
+        <v>-0.06688798926708171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.08157907458044</v>
+        <v>0.08659035418311632</v>
       </c>
       <c r="C83">
-        <v>-0.06194226723410291</v>
+        <v>-0.1158685397175761</v>
       </c>
       <c r="D83">
-        <v>-0.04604247115345728</v>
+        <v>0.01904188082861707</v>
       </c>
       <c r="E83">
-        <v>-0.002776718560494405</v>
+        <v>0.01421516039297516</v>
       </c>
       <c r="F83">
-        <v>0.07159611577912948</v>
+        <v>0.090599635483326</v>
       </c>
       <c r="G83">
-        <v>-0.0432865149706055</v>
+        <v>-0.001742911442636474</v>
       </c>
       <c r="H83">
-        <v>0.05801788329522928</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.05148761235386669</v>
+      </c>
+      <c r="I83">
+        <v>0.1717251987912193</v>
+      </c>
+      <c r="J83">
+        <v>-0.03330999843480043</v>
+      </c>
+      <c r="K83">
+        <v>0.1244940687401231</v>
+      </c>
+      <c r="L83">
+        <v>-0.1333061257307977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.06130461575716203</v>
+        <v>0.05798458954304926</v>
       </c>
       <c r="C84">
-        <v>-0.04715900795550618</v>
+        <v>0.03064914025805324</v>
       </c>
       <c r="D84">
-        <v>0.0505048293118842</v>
+        <v>0.01274753621781624</v>
       </c>
       <c r="E84">
-        <v>-0.01382389206540212</v>
+        <v>0.00796123273540421</v>
       </c>
       <c r="F84">
-        <v>-0.06729597423938311</v>
+        <v>-0.03918415562710396</v>
       </c>
       <c r="G84">
-        <v>0.1321544922920157</v>
+        <v>-0.1262757813859972</v>
       </c>
       <c r="H84">
-        <v>0.03153004862657759</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2155357734133922</v>
+      </c>
+      <c r="I84">
+        <v>-0.1987474391690072</v>
+      </c>
+      <c r="J84">
+        <v>-0.1516134892692633</v>
+      </c>
+      <c r="K84">
+        <v>0.2123583498735787</v>
+      </c>
+      <c r="L84">
+        <v>0.09444954163058225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09901637511951841</v>
+        <v>0.1122364611054727</v>
       </c>
       <c r="C85">
-        <v>-0.03575845308288789</v>
+        <v>-0.04809901993979806</v>
       </c>
       <c r="D85">
-        <v>-0.02711948645059144</v>
+        <v>0.04940730594493148</v>
       </c>
       <c r="E85">
-        <v>0.05957634973757744</v>
+        <v>0.0004536046536001295</v>
       </c>
       <c r="F85">
-        <v>-0.1828682551071346</v>
+        <v>0.002336466851422513</v>
       </c>
       <c r="G85">
-        <v>-0.0230920429500687</v>
+        <v>0.1056193729393754</v>
       </c>
       <c r="H85">
-        <v>0.09039362623450983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1233232889011244</v>
+      </c>
+      <c r="I85">
+        <v>-0.1114665981697003</v>
+      </c>
+      <c r="J85">
+        <v>0.07384878071032994</v>
+      </c>
+      <c r="K85">
+        <v>-0.03454722318478793</v>
+      </c>
+      <c r="L85">
+        <v>-0.001031854373336253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.05750916414036207</v>
+        <v>0.07858992309110946</v>
       </c>
       <c r="C86">
-        <v>-0.03879462362653598</v>
+        <v>-0.03317769688430779</v>
       </c>
       <c r="D86">
-        <v>-0.03586110719422686</v>
+        <v>0.1018452234763954</v>
       </c>
       <c r="E86">
-        <v>-0.0337018643289625</v>
+        <v>-0.03937870881958277</v>
       </c>
       <c r="F86">
-        <v>0.04284738480655462</v>
+        <v>0.007407952966836097</v>
       </c>
       <c r="G86">
-        <v>-0.03752936294034552</v>
+        <v>-0.2604794679422528</v>
       </c>
       <c r="H86">
-        <v>0.02606576384477245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4523889394187656</v>
+      </c>
+      <c r="I86">
+        <v>-0.5814736118186812</v>
+      </c>
+      <c r="J86">
+        <v>0.3462108075567716</v>
+      </c>
+      <c r="K86">
+        <v>0.01981944768596793</v>
+      </c>
+      <c r="L86">
+        <v>-0.02457005693036853</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09303924229303508</v>
+        <v>0.1119685456981196</v>
       </c>
       <c r="C87">
-        <v>-0.04661458261820466</v>
+        <v>-0.09917321601787084</v>
       </c>
       <c r="D87">
-        <v>-0.01144517425300024</v>
+        <v>0.0333465569154773</v>
       </c>
       <c r="E87">
-        <v>-0.06175839882881892</v>
+        <v>-0.03118044376035406</v>
       </c>
       <c r="F87">
-        <v>0.01413808763081368</v>
+        <v>0.1220663664449699</v>
       </c>
       <c r="G87">
-        <v>-0.1343139103330531</v>
+        <v>-0.02153006899950934</v>
       </c>
       <c r="H87">
-        <v>0.03057878917884477</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.08938114360563743</v>
+      </c>
+      <c r="I87">
+        <v>0.07815803006158439</v>
+      </c>
+      <c r="J87">
+        <v>0.1355300695506404</v>
+      </c>
+      <c r="K87">
+        <v>-0.04254529577085008</v>
+      </c>
+      <c r="L87">
+        <v>-0.2791375854873472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06290221620144111</v>
+        <v>0.05628007709014847</v>
       </c>
       <c r="C88">
-        <v>-0.03404892038210418</v>
+        <v>-0.05053031913626634</v>
       </c>
       <c r="D88">
-        <v>-0.01971586802433106</v>
+        <v>0.02963393590126369</v>
       </c>
       <c r="E88">
-        <v>-0.00701843491996233</v>
+        <v>0.02607022349727486</v>
       </c>
       <c r="F88">
-        <v>0.01278240626477208</v>
+        <v>0.03774856683894698</v>
       </c>
       <c r="G88">
-        <v>-0.04022939196535048</v>
+        <v>0.03783958678482939</v>
       </c>
       <c r="H88">
-        <v>0.01475505492682945</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.009483652846871268</v>
+      </c>
+      <c r="I88">
+        <v>0.02123157938031167</v>
+      </c>
+      <c r="J88">
+        <v>-0.04011074853344416</v>
+      </c>
+      <c r="K88">
+        <v>0.04844651571724926</v>
+      </c>
+      <c r="L88">
+        <v>0.04434156104596633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1274512238039029</v>
+        <v>0.1951729997462781</v>
       </c>
       <c r="C89">
-        <v>0.3520973581328067</v>
+        <v>0.368533593614903</v>
       </c>
       <c r="D89">
-        <v>-0.1056489685204715</v>
+        <v>0.02653417969101991</v>
       </c>
       <c r="E89">
-        <v>-0.08337138441485362</v>
+        <v>-0.05984716367409851</v>
       </c>
       <c r="F89">
-        <v>0.06178609131641417</v>
+        <v>0.03094866627571946</v>
       </c>
       <c r="G89">
-        <v>-0.01391152237535823</v>
+        <v>-0.03948658378165056</v>
       </c>
       <c r="H89">
-        <v>0.03704725709931378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01935493199651303</v>
+      </c>
+      <c r="I89">
+        <v>0.03789719871461873</v>
+      </c>
+      <c r="J89">
+        <v>-0.04974386168396094</v>
+      </c>
+      <c r="K89">
+        <v>0.04661166114191982</v>
+      </c>
+      <c r="L89">
+        <v>-0.01908181462241379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09713444508871888</v>
+        <v>0.1482420329559067</v>
       </c>
       <c r="C90">
-        <v>0.2779255301399979</v>
+        <v>0.2695029992080646</v>
       </c>
       <c r="D90">
-        <v>-0.04677409999024231</v>
+        <v>0.009031651685681385</v>
       </c>
       <c r="E90">
-        <v>-0.05819121717132026</v>
+        <v>-0.003640831591641752</v>
       </c>
       <c r="F90">
-        <v>0.04823390395921846</v>
+        <v>0.04221002995166196</v>
       </c>
       <c r="G90">
-        <v>-0.08763082242757433</v>
+        <v>0.02035213357123098</v>
       </c>
       <c r="H90">
-        <v>0.002667730729328071</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06054775912357452</v>
+      </c>
+      <c r="I90">
+        <v>0.02096706065792001</v>
+      </c>
+      <c r="J90">
+        <v>-0.03712468452792713</v>
+      </c>
+      <c r="K90">
+        <v>-0.03214295017094618</v>
+      </c>
+      <c r="L90">
+        <v>0.0187049121898195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08068079611211709</v>
+        <v>0.07912328660757192</v>
       </c>
       <c r="C91">
-        <v>-0.02884505284881152</v>
+        <v>-0.04831811964615215</v>
       </c>
       <c r="D91">
-        <v>-0.01269969031444572</v>
+        <v>0.02864039939746378</v>
       </c>
       <c r="E91">
-        <v>0.0179035198595567</v>
+        <v>-0.004911721712332453</v>
       </c>
       <c r="F91">
-        <v>-0.08585042700541383</v>
+        <v>-0.02049456924230383</v>
       </c>
       <c r="G91">
-        <v>0.0591806587200401</v>
+        <v>0.05874708538233257</v>
       </c>
       <c r="H91">
-        <v>0.01300996962062221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.07621568534350924</v>
+      </c>
+      <c r="I91">
+        <v>-0.06082369236704541</v>
+      </c>
+      <c r="J91">
+        <v>0.01160875365138139</v>
+      </c>
+      <c r="K91">
+        <v>0.00424295472091415</v>
+      </c>
+      <c r="L91">
+        <v>0.0100578228433287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1054918707205726</v>
+        <v>0.165126989078848</v>
       </c>
       <c r="C92">
-        <v>0.3253135891783608</v>
+        <v>0.3197329521335431</v>
       </c>
       <c r="D92">
-        <v>-0.0796689138555942</v>
+        <v>0.003275801583797539</v>
       </c>
       <c r="E92">
-        <v>-0.05253320933165136</v>
+        <v>-0.04304084213331461</v>
       </c>
       <c r="F92">
-        <v>-0.001477909725840939</v>
+        <v>0.05182749819727158</v>
       </c>
       <c r="G92">
-        <v>0.1003117500607473</v>
+        <v>0.0004036953740398391</v>
       </c>
       <c r="H92">
-        <v>0.01904314174594875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03541071311200812</v>
+      </c>
+      <c r="I92">
+        <v>-0.002514681466616815</v>
+      </c>
+      <c r="J92">
+        <v>-0.04643379661844596</v>
+      </c>
+      <c r="K92">
+        <v>0.04082023548565024</v>
+      </c>
+      <c r="L92">
+        <v>0.03105707179262356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1118090387250947</v>
+        <v>0.1554045286933646</v>
       </c>
       <c r="C93">
-        <v>0.2776838770355295</v>
+        <v>0.297450132865945</v>
       </c>
       <c r="D93">
-        <v>-0.05068646138613789</v>
+        <v>0.01856356387546801</v>
       </c>
       <c r="E93">
-        <v>-0.03111466260495078</v>
+        <v>0.02121307828497229</v>
       </c>
       <c r="F93">
-        <v>0.0191666784482858</v>
+        <v>0.01748618138650467</v>
       </c>
       <c r="G93">
-        <v>-0.007077956850035036</v>
+        <v>0.01874284235397179</v>
       </c>
       <c r="H93">
-        <v>-0.0217780726935346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04841242223727847</v>
+      </c>
+      <c r="I93">
+        <v>-0.002812081247886239</v>
+      </c>
+      <c r="J93">
+        <v>0.02887334394480364</v>
+      </c>
+      <c r="K93">
+        <v>0.01826854514594195</v>
+      </c>
+      <c r="L93">
+        <v>0.006215641293493662</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09567174332076427</v>
+        <v>0.1169385658917006</v>
       </c>
       <c r="C94">
-        <v>-0.05046681032383245</v>
+        <v>-0.06521898800109009</v>
       </c>
       <c r="D94">
-        <v>-0.006115308832847609</v>
+        <v>0.02274471683861326</v>
       </c>
       <c r="E94">
-        <v>0.02398367497088819</v>
+        <v>-0.01540769745863288</v>
       </c>
       <c r="F94">
-        <v>-0.1470355953551784</v>
+        <v>-0.03204851641725166</v>
       </c>
       <c r="G94">
-        <v>0.0544211302086945</v>
+        <v>0.08939997059110606</v>
       </c>
       <c r="H94">
-        <v>0.07404869355079524</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.1059668708090199</v>
+      </c>
+      <c r="I94">
+        <v>-0.08105698069523561</v>
+      </c>
+      <c r="J94">
+        <v>-0.001971596866651301</v>
+      </c>
+      <c r="K94">
+        <v>0.001584036085921588</v>
+      </c>
+      <c r="L94">
+        <v>0.05615803119298936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1238492223780246</v>
+        <v>0.1191232540712665</v>
       </c>
       <c r="C95">
-        <v>-0.07306984485710555</v>
+        <v>-0.07041769567072317</v>
       </c>
       <c r="D95">
-        <v>-0.05673716802744042</v>
+        <v>0.04346222914300239</v>
       </c>
       <c r="E95">
-        <v>-0.05190246830563063</v>
+        <v>-0.03094590147244855</v>
       </c>
       <c r="F95">
-        <v>0.06878922725016046</v>
+        <v>0.06010106500457216</v>
       </c>
       <c r="G95">
-        <v>-0.04971391458031917</v>
+        <v>-0.1433635235678098</v>
       </c>
       <c r="H95">
-        <v>0.1199654493709486</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.2110175132712914</v>
+      </c>
+      <c r="I95">
+        <v>0.0169962865976424</v>
+      </c>
+      <c r="J95">
+        <v>0.09074015619075358</v>
+      </c>
+      <c r="K95">
+        <v>0.1059668230764979</v>
+      </c>
+      <c r="L95">
+        <v>-0.03960303224887779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.002581424654062707</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.005662298536529472</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.002366736151104799</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001638853161292298</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.003327942150111324</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.0153504378370705</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01428411153294102</v>
+      </c>
+      <c r="I96">
+        <v>0.00940294392495853</v>
+      </c>
+      <c r="J96">
+        <v>0.000320846058027353</v>
+      </c>
+      <c r="K96">
+        <v>-0.01045039037478834</v>
+      </c>
+      <c r="L96">
+        <v>-0.004296492848790362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.224700122472828</v>
+        <v>0.192273797204178</v>
       </c>
       <c r="C97">
-        <v>0.1355710593842362</v>
+        <v>-0.05906192775227785</v>
       </c>
       <c r="D97">
-        <v>0.9032776809882715</v>
+        <v>-0.9342981137961961</v>
       </c>
       <c r="E97">
-        <v>0.02859328156889981</v>
+        <v>0.1568331154154614</v>
       </c>
       <c r="F97">
-        <v>0.09479848288463538</v>
+        <v>-0.07626857228950737</v>
       </c>
       <c r="G97">
-        <v>0.00494417125322969</v>
+        <v>-0.01455352671142383</v>
       </c>
       <c r="H97">
-        <v>-0.03018655858820664</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.09636780592835638</v>
+      </c>
+      <c r="I97">
+        <v>-0.05348421592462912</v>
+      </c>
+      <c r="J97">
+        <v>0.0006114892466197717</v>
+      </c>
+      <c r="K97">
+        <v>-0.01515117793372856</v>
+      </c>
+      <c r="L97">
+        <v>-0.05324445221454521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3039283122976226</v>
+        <v>0.2531647464117846</v>
       </c>
       <c r="C98">
-        <v>-0.09969336653459847</v>
+        <v>-0.09562375989372242</v>
       </c>
       <c r="D98">
-        <v>-0.09751965051269494</v>
+        <v>0.04216943147205663</v>
       </c>
       <c r="E98">
-        <v>0.1817130878331392</v>
+        <v>-0.01751525282403627</v>
       </c>
       <c r="F98">
-        <v>0.257620445078146</v>
+        <v>-0.4015875926650864</v>
       </c>
       <c r="G98">
-        <v>0.3437670731990238</v>
+        <v>-0.1815179704246151</v>
       </c>
       <c r="H98">
-        <v>-0.3397648504170707</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.0403803027339595</v>
+      </c>
+      <c r="I98">
+        <v>0.2252338596317886</v>
+      </c>
+      <c r="J98">
+        <v>-0.05665394368694698</v>
+      </c>
+      <c r="K98">
+        <v>0.3955043634158077</v>
+      </c>
+      <c r="L98">
+        <v>-0.3767374758950223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.07768735829497889</v>
+        <v>0.06562241262016456</v>
       </c>
       <c r="C99">
-        <v>-0.04688621699405506</v>
+        <v>-0.04018442586716125</v>
       </c>
       <c r="D99">
-        <v>-0.01920814520998716</v>
+        <v>0.02732377059370188</v>
       </c>
       <c r="E99">
-        <v>-0.0007662295695383374</v>
+        <v>-0.01076226686256613</v>
       </c>
       <c r="F99">
-        <v>-0.02871945466975699</v>
+        <v>-0.007254001611941827</v>
       </c>
       <c r="G99">
-        <v>-0.04241258366059094</v>
+        <v>0.008536420075973643</v>
       </c>
       <c r="H99">
-        <v>0.006047887671144788</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02912435423184648</v>
+      </c>
+      <c r="I99">
+        <v>-0.00228204168307226</v>
+      </c>
+      <c r="J99">
+        <v>-0.04034577783932212</v>
+      </c>
+      <c r="K99">
+        <v>-0.02106102812394939</v>
+      </c>
+      <c r="L99">
+        <v>-0.004254460906219422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.00168411288758388</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.006487169669081781</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.06589745924039425</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.0155710382420123</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03626502953489009</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.00814318796939509</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.007277448792848687</v>
+      </c>
+      <c r="I100">
+        <v>0.05044925985462932</v>
+      </c>
+      <c r="J100">
+        <v>0.002566496614054596</v>
+      </c>
+      <c r="K100">
+        <v>0.06377837427943885</v>
+      </c>
+      <c r="L100">
+        <v>-0.02059899008503169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05414436763450797</v>
+        <v>0.03713960960322981</v>
       </c>
       <c r="C101">
-        <v>-0.003868768045998512</v>
+        <v>-0.02136065112772061</v>
       </c>
       <c r="D101">
-        <v>-0.007812580720498792</v>
+        <v>0.02030541133543928</v>
       </c>
       <c r="E101">
-        <v>-0.0351059855534166</v>
+        <v>0.004074709047665309</v>
       </c>
       <c r="F101">
-        <v>-0.02137033394180868</v>
+        <v>0.06289626443365563</v>
       </c>
       <c r="G101">
-        <v>-0.001316301891746763</v>
+        <v>0.01925555765238274</v>
       </c>
       <c r="H101">
-        <v>0.01862794963692974</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01167109752491481</v>
+      </c>
+      <c r="I101">
+        <v>0.009374781981595316</v>
+      </c>
+      <c r="J101">
+        <v>0.02524817778527164</v>
+      </c>
+      <c r="K101">
+        <v>0.1047310750554143</v>
+      </c>
+      <c r="L101">
+        <v>0.007273349951483136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
